--- a/document/design/全体設計.xlsx
+++ b/document/design/全体設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\西﨑稜平\Desktop\app\Game_Imitation_1_SB\document\design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takas\Documents\programming\Game_Imitation_1_SB\document\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59076144-A199-43D7-929F-CD7C4BBC82BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27C5353-B8A7-463A-B643-CF6BDBC7DD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{A8266A65-83C8-44CB-A444-529E75E715A0}"/>
+    <workbookView xWindow="28845" yWindow="18405" windowWidth="15855" windowHeight="9660" activeTab="1" xr2:uid="{A8266A65-83C8-44CB-A444-529E75E715A0}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移" sheetId="2" r:id="rId1"/>
@@ -19,17 +19,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">機能一覧!$A$1:$E$20</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
   <si>
     <t>ページ</t>
     <phoneticPr fontId="2"/>
@@ -238,6 +249,18 @@
     <rPh sb="7" eb="9">
       <t>センイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リクエストメソッド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Get</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Post</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -324,7 +347,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -342,6 +365,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1613,18 +1639,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE5F4EF-919F-4047-9805-EE1D12216B4D}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1640,8 +1667,11 @@
       <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <f>ROW(A2)-ROW($A$1)</f>
         <v>1</v>
@@ -1656,8 +1686,9 @@
         <v>5</v>
       </c>
       <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A20" si="0">ROW(A3)-ROW($A$1)</f>
         <v>2</v>
@@ -1672,8 +1703,9 @@
         <v>5</v>
       </c>
       <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1688,8 +1720,9 @@
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1704,8 +1737,9 @@
         <v>5</v>
       </c>
       <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1720,8 +1754,11 @@
         <v>10</v>
       </c>
       <c r="E6" s="3"/>
+      <c r="F6" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1736,8 +1773,11 @@
         <v>10</v>
       </c>
       <c r="E7" s="3"/>
+      <c r="F7" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1752,8 +1792,11 @@
         <v>10</v>
       </c>
       <c r="E8" s="3"/>
+      <c r="F8" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1768,8 +1811,9 @@
         <v>5</v>
       </c>
       <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1784,8 +1828,9 @@
         <v>5</v>
       </c>
       <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1802,8 +1847,11 @@
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="F11" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1818,8 +1866,9 @@
         <v>5</v>
       </c>
       <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1834,8 +1883,9 @@
         <v>5</v>
       </c>
       <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1852,8 +1902,11 @@
       <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="F14" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1870,8 +1923,9 @@
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1886,8 +1940,9 @@
         <v>5</v>
       </c>
       <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1902,8 +1957,9 @@
         <v>5</v>
       </c>
       <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1918,8 +1974,9 @@
         <v>5</v>
       </c>
       <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1934,8 +1991,11 @@
         <v>10</v>
       </c>
       <c r="E19" s="3"/>
+      <c r="F19" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1951,6 +2011,9 @@
       </c>
       <c r="E20" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/document/design/全体設計.xlsx
+++ b/document/design/全体設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\西﨑稜平\Desktop\app\Game_Imitation_1_SB\document\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59076144-A199-43D7-929F-CD7C4BBC82BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84653F2F-9D54-43AA-8F39-67FED010BC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{A8266A65-83C8-44CB-A444-529E75E715A0}"/>
   </bookViews>
@@ -328,12 +328,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -342,6 +336,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1616,340 +1616,341 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="5" width="12.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <f>ROW(A2)-ROW($A$1)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <f t="shared" ref="A3:A20" si="0">ROW(A3)-ROW($A$1)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="1" t="s">
         <v>18</v>
       </c>
     </row>

--- a/document/design/全体設計.xlsx
+++ b/document/design/全体設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takas\Documents\programming\Game_Imitation_1_SB\document\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27C5353-B8A7-463A-B643-CF6BDBC7DD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D7241C-2711-4DC7-895F-4D35ABF7468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28845" yWindow="18405" windowWidth="15855" windowHeight="9660" activeTab="1" xr2:uid="{A8266A65-83C8-44CB-A444-529E75E715A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{A8266A65-83C8-44CB-A444-529E75E715A0}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移" sheetId="2" r:id="rId1"/>
@@ -347,7 +347,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -365,9 +365,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1642,7 +1639,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1754,7 +1751,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1773,7 +1770,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1792,7 +1789,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1847,7 +1844,7 @@
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1902,7 +1899,7 @@
       <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1991,7 +1988,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2012,7 +2009,7 @@
       <c r="E20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="3" t="s">
         <v>29</v>
       </c>
     </row>

--- a/document/design/全体設計.xlsx
+++ b/document/design/全体設計.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\西﨑稜平\Desktop\app\Game_Imitation_1_SB\document\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84653F2F-9D54-43AA-8F39-67FED010BC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D7092E-BFEA-4745-8E18-5363DE7AFADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{A8266A65-83C8-44CB-A444-529E75E715A0}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="機能一覧" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">機能一覧!$A$1:$E$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">機能一覧!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
   <si>
     <t>ページ</t>
     <phoneticPr fontId="2"/>
@@ -237,6 +237,190 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>顔認証</t>
+    <rPh sb="0" eb="3">
+      <t>カオニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>予約ページ</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面に遷移</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホーム画面に遷移</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>front</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チャットボット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チャット予約(レコメンド機能付き)</t>
+    <rPh sb="4" eb="6">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>キノウツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通常の予約フォーム</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨヤク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>API</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Redis</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>予約受付・管理</t>
+    <rPh sb="0" eb="4">
+      <t>ヨヤクウケツケ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員専用ページ</t>
+    <rPh sb="0" eb="4">
+      <t>シャインセンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>予約、顧客情報取得</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="3" eb="9">
+      <t>コキャクジョウホウシュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー認証➀　社員ログイン</t>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー認証➁　顔認証</t>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カオニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー認証➂　音声認証</t>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>オンセイニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>音声認証</t>
+    <rPh sb="0" eb="4">
+      <t>オンセイニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開発者専用ページ</t>
+    <rPh sb="0" eb="5">
+      <t>カイハツシャセンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アクセスログの記録</t>
+    <rPh sb="7" eb="9">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アクセスログの記録分析、異常検知</t>
+    <rPh sb="7" eb="9">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>イジョウケンチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>異常検知モデル</t>
+    <rPh sb="0" eb="4">
+      <t>イジョウケンチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -324,7 +508,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -342,6 +526,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1613,10 +1800,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE5F4EF-919F-4047-9805-EE1D12216B4D}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1625,7 +1812,7 @@
     <col min="4" max="5" width="12.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1641,8 +1828,11 @@
       <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <f>ROW(A2)-ROW($A$1)</f>
         <v>1</v>
@@ -1657,10 +1847,13 @@
         <v>5</v>
       </c>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A20" si="0">ROW(A3)-ROW($A$1)</f>
+        <f t="shared" ref="A3:A32" si="0">ROW(A3)-ROW($A$1)</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1673,8 +1866,11 @@
         <v>5</v>
       </c>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1689,8 +1885,11 @@
         <v>5</v>
       </c>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1705,8 +1904,11 @@
         <v>5</v>
       </c>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1721,8 +1923,9 @@
         <v>10</v>
       </c>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1737,8 +1940,9 @@
         <v>10</v>
       </c>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1753,8 +1957,9 @@
         <v>10</v>
       </c>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1769,8 +1974,9 @@
         <v>5</v>
       </c>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1785,8 +1991,9 @@
         <v>5</v>
       </c>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1803,8 +2010,9 @@
       <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1819,8 +2027,9 @@
         <v>5</v>
       </c>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1835,8 +2044,9 @@
         <v>5</v>
       </c>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1853,8 +2063,11 @@
       <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="F14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1871,8 +2084,9 @@
       <c r="E15" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1887,8 +2101,9 @@
         <v>5</v>
       </c>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1903,8 +2118,9 @@
         <v>5</v>
       </c>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1919,8 +2135,9 @@
         <v>5</v>
       </c>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1935,8 +2152,9 @@
         <v>10</v>
       </c>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1953,9 +2171,234 @@
       <c r="E20" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E20" xr:uid="{6AE5F4EF-919F-4047-9805-EE1D12216B4D}"/>
+  <autoFilter ref="A1:F1" xr:uid="{6AE5F4EF-919F-4047-9805-EE1D12216B4D}"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
